--- a/inst/money.xlsx
+++ b/inst/money.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="757">
   <si>
     <t>name</t>
   </si>
@@ -70,7 +70,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>english</t>
+    <t>Persian, Pashto</t>
   </si>
   <si>
     <t>Albania</t>
@@ -88,6 +88,9 @@
     <t>Qintar</t>
   </si>
   <si>
+    <t>Albanian</t>
+  </si>
+  <si>
     <t>Algeria</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>Santeem</t>
   </si>
   <si>
+    <t>Arabic, Berber</t>
+  </si>
+  <si>
     <t>Andorra</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>Cent</t>
   </si>
   <si>
+    <t>Catalan</t>
+  </si>
+  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -133,6 +142,9 @@
     <t>Cêntimo</t>
   </si>
   <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t>XCD</t>
   </si>
   <si>
+    <t>English</t>
+  </si>
+  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -157,6 +172,9 @@
     <t>Centavo</t>
   </si>
   <si>
+    <t>Spanish</t>
+  </si>
+  <si>
     <t>Anguilla</t>
   </si>
   <si>
@@ -175,9 +193,15 @@
     <t>Luma</t>
   </si>
   <si>
+    <t>Armenian</t>
+  </si>
+  <si>
     <t>Austria</t>
   </si>
   <si>
+    <t>German</t>
+  </si>
+  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -202,6 +226,9 @@
     <t>Qəpik</t>
   </si>
   <si>
+    <t>Azerbaijani</t>
+  </si>
+  <si>
     <t>Bahrain</t>
   </si>
   <si>
@@ -217,6 +244,9 @@
     <t>Fils</t>
   </si>
   <si>
+    <t>Arabic</t>
+  </si>
+  <si>
     <t>The Bahamas</t>
   </si>
   <si>
@@ -241,6 +271,9 @@
     <t>Poisha</t>
   </si>
   <si>
+    <t>Bengali</t>
+  </si>
+  <si>
     <t>Barbados</t>
   </si>
   <si>
@@ -265,9 +298,15 @@
     <t>Copeck</t>
   </si>
   <si>
+    <t>Belarusian, Russian</t>
+  </si>
+  <si>
     <t>Belgium</t>
   </si>
   <si>
+    <t>Dutch, French, German</t>
+  </si>
+  <si>
     <t>Belize</t>
   </si>
   <si>
@@ -292,6 +331,9 @@
     <t>Centime</t>
   </si>
   <si>
+    <t>French</t>
+  </si>
+  <si>
     <t>Bhutan</t>
   </si>
   <si>
@@ -307,6 +349,9 @@
     <t>Chetrum</t>
   </si>
   <si>
+    <t>Dzongkha</t>
+  </si>
+  <si>
     <t>Bolivia</t>
   </si>
   <si>
@@ -319,6 +364,9 @@
     <t>BOB</t>
   </si>
   <si>
+    <t>Spanish, Quechua, Aymara, Guarani</t>
+  </si>
+  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
@@ -334,6 +382,9 @@
     <t>Fening</t>
   </si>
   <si>
+    <t>Bosnian, Croatian, Serbian</t>
+  </si>
+  <si>
     <t>Botswana</t>
   </si>
   <si>
@@ -373,6 +424,9 @@
     <t>Sen</t>
   </si>
   <si>
+    <t>Malay</t>
+  </si>
+  <si>
     <t>Bulgaria</t>
   </si>
   <si>
@@ -388,6 +442,9 @@
     <t>Stotinka</t>
   </si>
   <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
@@ -400,6 +457,9 @@
     <t>BIF</t>
   </si>
   <si>
+    <t>French, Kirundi, English</t>
+  </si>
+  <si>
     <t>Cape Verde</t>
   </si>
   <si>
@@ -421,6 +481,9 @@
     <t>KHR</t>
   </si>
   <si>
+    <t>Khmer</t>
+  </si>
+  <si>
     <t>Cameroon</t>
   </si>
   <si>
@@ -430,6 +493,9 @@
     <t>XAF</t>
   </si>
   <si>
+    <t>English, French</t>
+  </si>
+  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -442,9 +508,15 @@
     <t>Central African Republic</t>
   </si>
   <si>
+    <t>French, Sango</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
+    <t>French, Arabic</t>
+  </si>
+  <si>
     <t>Chile</t>
   </si>
   <si>
@@ -469,6 +541,9 @@
     <t>Jiao</t>
   </si>
   <si>
+    <t>Chinese</t>
+  </si>
+  <si>
     <t>Colombia</t>
   </si>
   <si>
@@ -487,6 +562,9 @@
     <t>KMF</t>
   </si>
   <si>
+    <t>Arabic, Comorian, French</t>
+  </si>
+  <si>
     <t>DR Congo</t>
   </si>
   <si>
@@ -520,6 +598,9 @@
     <t>Croatia</t>
   </si>
   <si>
+    <t>Croatian</t>
+  </si>
+  <si>
     <t>Cuba</t>
   </si>
   <si>
@@ -532,6 +613,9 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Greek, Turkish</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
@@ -547,6 +631,9 @@
     <t>Heller</t>
   </si>
   <si>
+    <t>Czech, Slovak</t>
+  </si>
+  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -562,6 +649,9 @@
     <t>Øre</t>
   </si>
   <si>
+    <t>Danish</t>
+  </si>
+  <si>
     <t>Djibouti</t>
   </si>
   <si>
@@ -571,6 +661,9 @@
     <t>DJF</t>
   </si>
   <si>
+    <t>Arabic, French</t>
+  </si>
+  <si>
     <t>Dominica</t>
   </si>
   <si>
@@ -592,9 +685,15 @@
     <t>USD</t>
   </si>
   <si>
+    <t>Portuguese, Tetum</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
+    <t>Spanish, Quechua</t>
+  </si>
+  <si>
     <t>Egypt</t>
   </si>
   <si>
@@ -616,6 +715,9 @@
     <t>Equatorial Guinea</t>
   </si>
   <si>
+    <t>French, Portuguese, Spanish</t>
+  </si>
+  <si>
     <t>Eritrea</t>
   </si>
   <si>
@@ -628,9 +730,15 @@
     <t>ERN</t>
   </si>
   <si>
+    <t>Tigrinya</t>
+  </si>
+  <si>
     <t>Estonia</t>
   </si>
   <si>
+    <t>Estonian</t>
+  </si>
+  <si>
     <t>Eswatini</t>
   </si>
   <si>
@@ -643,6 +751,9 @@
     <t>SZL</t>
   </si>
   <si>
+    <t>English, Swazi</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -655,6 +766,9 @@
     <t>Santim</t>
   </si>
   <si>
+    <t>Afar, Amharic, Oromo, Somali, Tigrinya</t>
+  </si>
+  <si>
     <t>Faeroe Islands</t>
   </si>
   <si>
@@ -682,9 +796,15 @@
     <t>FJD</t>
   </si>
   <si>
+    <t>English, Fijian, Hindi</t>
+  </si>
+  <si>
     <t>Finland</t>
   </si>
   <si>
+    <t>Finnish, Swedish</t>
+  </si>
+  <si>
     <t>France</t>
   </si>
   <si>
@@ -721,6 +841,9 @@
     <t>Tetri</t>
   </si>
   <si>
+    <t>Georgian</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -751,6 +874,9 @@
     <t>Greece</t>
   </si>
   <si>
+    <t>Greek</t>
+  </si>
+  <si>
     <t>Grenada</t>
   </si>
   <si>
@@ -799,6 +925,9 @@
     <t>HTG</t>
   </si>
   <si>
+    <t>French, Creole</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
@@ -817,6 +946,9 @@
     <t>HKD</t>
   </si>
   <si>
+    <t>English, Chinese</t>
+  </si>
+  <si>
     <t>Hungary</t>
   </si>
   <si>
@@ -832,6 +964,9 @@
     <t>Fillér</t>
   </si>
   <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
     <t>Iceland</t>
   </si>
   <si>
@@ -844,6 +979,9 @@
     <t>Eyrir</t>
   </si>
   <si>
+    <t>Icelandic</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
@@ -859,6 +997,9 @@
     <t>Paisa</t>
   </si>
   <si>
+    <t>Hindi, English</t>
+  </si>
+  <si>
     <t>Indonesia</t>
   </si>
   <si>
@@ -871,6 +1012,9 @@
     <t>IDR</t>
   </si>
   <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
     <t>Iran</t>
   </si>
   <si>
@@ -886,6 +1030,9 @@
     <t>Rial</t>
   </si>
   <si>
+    <t>Persian</t>
+  </si>
+  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -898,9 +1045,15 @@
     <t>IQD</t>
   </si>
   <si>
+    <t>Arabic, Kurdish</t>
+  </si>
+  <si>
     <t>Ireland</t>
   </si>
   <si>
+    <t>Irish, English</t>
+  </si>
+  <si>
     <t>Isle of Man</t>
   </si>
   <si>
@@ -910,6 +1063,9 @@
     <t>GBP</t>
   </si>
   <si>
+    <t>English, Manx</t>
+  </si>
+  <si>
     <t>Israel</t>
   </si>
   <si>
@@ -925,9 +1081,15 @@
     <t>Agora</t>
   </si>
   <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
     <t>Italy</t>
   </si>
   <si>
+    <t>Italian</t>
+  </si>
+  <si>
     <t>Jamaica</t>
   </si>
   <si>
@@ -946,6 +1108,9 @@
     <t>JPY</t>
   </si>
   <si>
+    <t>Japanese</t>
+  </si>
+  <si>
     <t>Jordan</t>
   </si>
   <si>
@@ -973,6 +1138,9 @@
     <t>Tıyn</t>
   </si>
   <si>
+    <t>Kazakh, Russian</t>
+  </si>
+  <si>
     <t>Kenya</t>
   </si>
   <si>
@@ -985,9 +1153,15 @@
     <t>KES</t>
   </si>
   <si>
+    <t>English, Swahili</t>
+  </si>
+  <si>
     <t>Kosovo</t>
   </si>
   <si>
+    <t>Albanian, Serbian</t>
+  </si>
+  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -1015,6 +1189,9 @@
     <t>Tyiyn</t>
   </si>
   <si>
+    <t>Kyrgyz, Russian</t>
+  </si>
+  <si>
     <t>Laos</t>
   </si>
   <si>
@@ -1030,9 +1207,15 @@
     <t>Att</t>
   </si>
   <si>
+    <t>Lao</t>
+  </si>
+  <si>
     <t>Latvia</t>
   </si>
   <si>
+    <t>Latvian</t>
+  </si>
+  <si>
     <t>Lebanon</t>
   </si>
   <si>
@@ -1060,6 +1243,9 @@
     <t>Sente</t>
   </si>
   <si>
+    <t>Sotho, English</t>
+  </si>
+  <si>
     <t>Liberia</t>
   </si>
   <si>
@@ -1099,9 +1285,15 @@
     <t>Lithuania</t>
   </si>
   <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
     <t>Luxembourg</t>
   </si>
   <si>
+    <t>French, German, Luxembourgish</t>
+  </si>
+  <si>
     <t>Macau</t>
   </si>
   <si>
@@ -1117,6 +1309,9 @@
     <t>Avo</t>
   </si>
   <si>
+    <t>Chinese, Portuguese</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1132,6 +1327,9 @@
     <t>Iraimbilanja</t>
   </si>
   <si>
+    <t>French, Malagasy</t>
+  </si>
+  <si>
     <t>Malawi</t>
   </si>
   <si>
@@ -1147,6 +1345,9 @@
     <t>Tambala</t>
   </si>
   <si>
+    <t>English, Chichewa</t>
+  </si>
+  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -1174,12 +1375,18 @@
     <t>Laari</t>
   </si>
   <si>
+    <t>Dhivehi</t>
+  </si>
+  <si>
     <t>Mali</t>
   </si>
   <si>
     <t>Malta</t>
   </si>
   <si>
+    <t>Maltese, English</t>
+  </si>
+  <si>
     <t>Mauritania</t>
   </si>
   <si>
@@ -1207,6 +1414,9 @@
     <t>MUR</t>
   </si>
   <si>
+    <t>English, Creole</t>
+  </si>
+  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -1231,6 +1441,9 @@
     <t>Ban</t>
   </si>
   <si>
+    <t>Romanian</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
@@ -1249,9 +1462,15 @@
     <t>Möngö</t>
   </si>
   <si>
+    <t>Mongolian</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
+    <t>Montenegrin</t>
+  </si>
+  <si>
     <t>Morocco</t>
   </si>
   <si>
@@ -1288,6 +1507,9 @@
     <t>Pya</t>
   </si>
   <si>
+    <t>Burmese</t>
+  </si>
+  <si>
     <t>Namibia</t>
   </si>
   <si>
@@ -1306,9 +1528,15 @@
     <t>NPR</t>
   </si>
   <si>
+    <t>Nepali</t>
+  </si>
+  <si>
     <t>Netherlands</t>
   </si>
   <si>
+    <t>Dutch</t>
+  </si>
+  <si>
     <t>New Zealand</t>
   </si>
   <si>
@@ -1363,6 +1591,9 @@
     <t>Chon</t>
   </si>
   <si>
+    <t>Korean</t>
+  </si>
+  <si>
     <t>North Macedonia</t>
   </si>
   <si>
@@ -1378,6 +1609,9 @@
     <t>Deni</t>
   </si>
   <si>
+    <t>Macedonian, Albanian</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -1387,6 +1621,9 @@
     <t>NOK</t>
   </si>
   <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
     <t>Oman</t>
   </si>
   <si>
@@ -1411,6 +1648,9 @@
     <t>PKR</t>
   </si>
   <si>
+    <t>Urdu, English</t>
+  </si>
+  <si>
     <t>Panama</t>
   </si>
   <si>
@@ -1438,6 +1678,9 @@
     <t>PYG</t>
   </si>
   <si>
+    <t>Spanish, Guaraní</t>
+  </si>
+  <si>
     <t>Peru</t>
   </si>
   <si>
@@ -1450,6 +1693,9 @@
     <t>PEN</t>
   </si>
   <si>
+    <t>Peruvian, Spanish, Quechua, Aymara, Asháninka</t>
+  </si>
+  <si>
     <t>Philippines</t>
   </si>
   <si>
@@ -1465,6 +1711,9 @@
     <t>Sentimo</t>
   </si>
   <si>
+    <t>Filipino, English</t>
+  </si>
+  <si>
     <t>Poland</t>
   </si>
   <si>
@@ -1480,6 +1729,9 @@
     <t>Grosz</t>
   </si>
   <si>
+    <t>Polish</t>
+  </si>
+  <si>
     <t>Portugal</t>
   </si>
   <si>
@@ -1519,6 +1771,9 @@
     <t>Kopeck</t>
   </si>
   <si>
+    <t>Russian</t>
+  </si>
+  <si>
     <t>Rwanda</t>
   </si>
   <si>
@@ -1528,6 +1783,9 @@
     <t>RWF</t>
   </si>
   <si>
+    <t>English, French, Kinyarwanda, Swahili</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1594,6 +1852,9 @@
     <t>Para</t>
   </si>
   <si>
+    <t>Serbian</t>
+  </si>
+  <si>
     <t>Seychelles</t>
   </si>
   <si>
@@ -1603,6 +1864,9 @@
     <t>SCR</t>
   </si>
   <si>
+    <t>English, French, Creole</t>
+  </si>
+  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
@@ -1624,12 +1888,21 @@
     <t>SGD</t>
   </si>
   <si>
+    <t>English, Malay, Chinese, Tamil</t>
+  </si>
+  <si>
     <t>Slovakia</t>
   </si>
   <si>
+    <t>Slovak</t>
+  </si>
+  <si>
     <t>Slovenia</t>
   </si>
   <si>
+    <t>Slovene</t>
+  </si>
+  <si>
     <t>Somalia</t>
   </si>
   <si>
@@ -1651,6 +1924,9 @@
     <t>ZAR</t>
   </si>
   <si>
+    <t>Afrikaans, English, Ndebele, Sepedi, Sesotho, Setswana, Swazi, Tshivenda, Xhosa, Xitsonga, Zulu</t>
+  </si>
+  <si>
     <t>South Korea</t>
   </si>
   <si>
@@ -1693,6 +1969,9 @@
     <t>LKR</t>
   </si>
   <si>
+    <t>Sinhala, Tamil</t>
+  </si>
+  <si>
     <t>Palestine</t>
   </si>
   <si>
@@ -1708,6 +1987,9 @@
     <t>SDG</t>
   </si>
   <si>
+    <t>Arabic, English</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
@@ -1729,9 +2011,15 @@
     <t>Öre</t>
   </si>
   <si>
+    <t>Swedish</t>
+  </si>
+  <si>
     <t>Switzerland</t>
   </si>
   <si>
+    <t>German, French, Italian, Romansh</t>
+  </si>
+  <si>
     <t>Syria</t>
   </si>
   <si>
@@ -1765,6 +2053,9 @@
     <t>Diram</t>
   </si>
   <si>
+    <t>Tajik</t>
+  </si>
+  <si>
     <t>Tanzania</t>
   </si>
   <si>
@@ -1774,6 +2065,9 @@
     <t>TZS</t>
   </si>
   <si>
+    <t>Swahili, English</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -1789,6 +2083,9 @@
     <t>Satang</t>
   </si>
   <si>
+    <t>Thai</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1831,6 +2128,9 @@
     <t>Kuruş</t>
   </si>
   <si>
+    <t>Turkish</t>
+  </si>
+  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
@@ -1846,6 +2146,9 @@
     <t>Tenge</t>
   </si>
   <si>
+    <t>Turkmen</t>
+  </si>
+  <si>
     <t>Uganda</t>
   </si>
   <si>
@@ -1870,6 +2173,9 @@
     <t>UAH</t>
   </si>
   <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
@@ -1915,6 +2221,9 @@
     <t>Tiyin</t>
   </si>
   <si>
+    <t>Uzbek</t>
+  </si>
+  <si>
     <t>Venezuela</t>
   </si>
   <si>
@@ -1942,6 +2251,9 @@
     <t>Hào</t>
   </si>
   <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
     <t>Yemen</t>
   </si>
   <si>
@@ -1967,6 +2279,9 @@
   </si>
   <si>
     <t>Zimbabwean dollar</t>
+  </si>
+  <si>
+    <t>Chewa, Chibarwe, English, Kalanga, Khoisan, Nambya, Ndau, Ndebele, Shangani, Shona, Sotho, Tonga, Tswana, Venda, Xhosa</t>
   </si>
 </sst>
 </file>
@@ -2253,6 +2568,16 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="5.5"/>
+    <col customWidth="1" min="6" max="6" width="7.5"/>
+    <col customWidth="1" min="7" max="7" width="5.38"/>
+    <col customWidth="1" min="8" max="8" width="4.25"/>
+    <col customWidth="1" min="9" max="9" width="4.75"/>
+    <col customWidth="1" min="10" max="10" width="5.0"/>
+    <col customWidth="1" min="11" max="11" width="2.63"/>
+    <col customWidth="1" min="12" max="12" width="1.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
@@ -2371,7 +2696,7 @@
         <v>1.0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -2379,19 +2704,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <v>-1.0</v>
@@ -2412,7 +2737,7 @@
         <v>1.0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -2420,19 +2745,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1">
         <v>-1.0</v>
@@ -2453,7 +2778,7 @@
         <v>1.0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -2461,19 +2786,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1">
         <v>-1.0</v>
@@ -2494,7 +2819,7 @@
         <v>1.0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -2502,19 +2827,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1">
         <v>-1.0</v>
@@ -2535,7 +2860,7 @@
         <v>1.0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -2543,19 +2868,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1">
         <v>-1.0</v>
@@ -2576,25 +2901,25 @@
         <v>1.0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2602,26 +2927,28 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G10" s="1">
         <v>-1.0</v>
@@ -2642,7 +2969,7 @@
         <v>1.0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -2650,19 +2977,19 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1">
         <v>-1.0</v>
@@ -2683,25 +3010,25 @@
         <v>1.0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2709,26 +3036,28 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>10.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1">
         <v>-1.0</v>
@@ -2749,7 +3078,7 @@
         <v>1.0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -2757,19 +3086,19 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G14" s="1">
         <v>-1.0</v>
@@ -2790,25 +3119,25 @@
         <v>1.0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2816,26 +3145,28 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>12.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1">
         <v>-1.0</v>
@@ -2856,7 +3187,7 @@
         <v>1.0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -2864,19 +3195,19 @@
         <v>13.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G17" s="1">
         <v>-1.0</v>
@@ -2897,7 +3228,7 @@
         <v>1.0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -2905,19 +3236,19 @@
         <v>14.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G18" s="1">
         <v>-1.0</v>
@@ -2938,7 +3269,7 @@
         <v>1.0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
@@ -2946,19 +3277,19 @@
         <v>15.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1">
         <v>-1.0</v>
@@ -2979,7 +3310,7 @@
         <v>1.0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -2987,19 +3318,19 @@
         <v>16.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G20" s="1">
         <v>-1.0</v>
@@ -3020,7 +3351,7 @@
         <v>1.0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -3028,19 +3359,19 @@
         <v>17.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G21" s="1">
         <v>-1.0</v>
@@ -3061,7 +3392,7 @@
         <v>1.0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -3069,19 +3400,19 @@
         <v>18.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G22" s="1">
         <v>-1.0</v>
@@ -3102,7 +3433,7 @@
         <v>1.0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -3110,19 +3441,19 @@
         <v>19.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1">
         <v>-1.0</v>
@@ -3143,7 +3474,7 @@
         <v>1.0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
@@ -3151,19 +3482,19 @@
         <v>20.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G24" s="1">
         <v>-1.0</v>
@@ -3184,7 +3515,7 @@
         <v>1.0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
@@ -3192,19 +3523,19 @@
         <v>21.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G25" s="1">
         <v>-1.0</v>
@@ -3225,7 +3556,7 @@
         <v>1.0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
@@ -3233,19 +3564,19 @@
         <v>22.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1">
         <v>-1.0</v>
@@ -3266,7 +3597,7 @@
         <v>1.0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -3274,19 +3605,19 @@
         <v>23.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G27" s="1">
         <v>-1.0</v>
@@ -3307,7 +3638,7 @@
         <v>1.0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28">
@@ -3315,19 +3646,19 @@
         <v>24.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="G28" s="1">
         <v>-1.0</v>
@@ -3348,7 +3679,7 @@
         <v>1.0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29">
@@ -3356,19 +3687,19 @@
         <v>25.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G29" s="1">
         <v>-1.0</v>
@@ -3389,7 +3720,7 @@
         <v>1.0</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -3397,19 +3728,19 @@
         <v>26.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G30" s="1">
         <v>-1.0</v>
@@ -3430,7 +3761,7 @@
         <v>1.0</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31">
@@ -3438,19 +3769,19 @@
         <v>27.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G31" s="1">
         <v>-1.0</v>
@@ -3471,7 +3802,7 @@
         <v>1.0</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
@@ -3479,19 +3810,19 @@
         <v>28.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G32" s="1">
         <v>-1.0</v>
@@ -3512,7 +3843,7 @@
         <v>1.0</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33">
@@ -3520,19 +3851,19 @@
         <v>29.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G33" s="1">
         <v>-1.0</v>
@@ -3553,7 +3884,7 @@
         <v>1.0</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34">
@@ -3561,19 +3892,19 @@
         <v>30.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G34" s="1">
         <v>-1.0</v>
@@ -3594,7 +3925,7 @@
         <v>1.0</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -3602,19 +3933,19 @@
         <v>31.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G35" s="1">
         <v>-1.0</v>
@@ -3635,7 +3966,7 @@
         <v>1.0</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36">
@@ -3643,19 +3974,19 @@
         <v>32.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G36" s="1">
         <v>-1.0</v>
@@ -3676,7 +4007,7 @@
         <v>1.0</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37">
@@ -3684,19 +4015,19 @@
         <v>34.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G37" s="1">
         <v>-1.0</v>
@@ -3717,7 +4048,7 @@
         <v>1.0</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38">
@@ -3725,19 +4056,19 @@
         <v>35.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="G38" s="1">
         <v>-1.0</v>
@@ -3758,7 +4089,7 @@
         <v>1.0</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39">
@@ -3766,19 +4097,19 @@
         <v>36.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G39" s="1">
         <v>-1.0</v>
@@ -3799,7 +4130,7 @@
         <v>1.0</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40">
@@ -3807,19 +4138,19 @@
         <v>37.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G40" s="1">
         <v>-1.0</v>
@@ -3840,7 +4171,7 @@
         <v>1.0</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41">
@@ -3848,19 +4179,19 @@
         <v>38.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G41" s="1">
         <v>-1.0</v>
@@ -3881,25 +4212,25 @@
         <v>1.0</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -3907,26 +4238,28 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
         <v>39.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="G43" s="1">
         <v>-1.0</v>
@@ -3947,7 +4280,7 @@
         <v>1.0</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
@@ -3955,19 +4288,19 @@
         <v>40.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G44" s="1">
         <v>-1.0</v>
@@ -3988,7 +4321,7 @@
         <v>1.0</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -3996,19 +4329,19 @@
         <v>41.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G45" s="1">
         <v>-1.0</v>
@@ -4029,7 +4362,7 @@
         <v>1.0</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46">
@@ -4037,19 +4370,19 @@
         <v>42.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G46" s="1">
         <v>-1.0</v>
@@ -4070,7 +4403,7 @@
         <v>1.0</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47">
@@ -4078,19 +4411,19 @@
         <v>43.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G47" s="1">
         <v>-1.0</v>
@@ -4111,7 +4444,7 @@
         <v>1.0</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48">
@@ -4119,19 +4452,19 @@
         <v>44.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="G48" s="1">
         <v>-1.0</v>
@@ -4152,7 +4485,7 @@
         <v>1.0</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49">
@@ -4160,19 +4493,19 @@
         <v>45.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="G49" s="1">
         <v>-1.0</v>
@@ -4193,7 +4526,7 @@
         <v>1.0</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50">
@@ -4201,19 +4534,19 @@
         <v>46.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G50" s="1">
         <v>-1.0</v>
@@ -4234,7 +4567,7 @@
         <v>1.0</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51">
@@ -4242,19 +4575,19 @@
         <v>47.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G51" s="1">
         <v>-1.0</v>
@@ -4275,7 +4608,7 @@
         <v>1.0</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
@@ -4283,19 +4616,19 @@
         <v>48.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G52" s="1">
         <v>-1.0</v>
@@ -4316,7 +4649,7 @@
         <v>1.0</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
@@ -4324,19 +4657,19 @@
         <v>49.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G53" s="1">
         <v>-1.0</v>
@@ -4357,7 +4690,7 @@
         <v>1.0</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54">
@@ -4365,19 +4698,19 @@
         <v>50.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G54" s="1">
         <v>-1.0</v>
@@ -4398,7 +4731,7 @@
         <v>1.0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55">
@@ -4406,19 +4739,19 @@
         <v>51.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="G55" s="1">
         <v>-1.0</v>
@@ -4439,7 +4772,7 @@
         <v>1.0</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
@@ -4447,19 +4780,19 @@
         <v>52.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G56" s="1">
         <v>-1.0</v>
@@ -4480,7 +4813,7 @@
         <v>1.0</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57">
@@ -4488,19 +4821,19 @@
         <v>53.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G57" s="1">
         <v>-1.0</v>
@@ -4521,7 +4854,7 @@
         <v>1.0</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58">
@@ -4529,19 +4862,19 @@
         <v>54.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G58" s="1">
         <v>-1.0</v>
@@ -4562,7 +4895,7 @@
         <v>1.0</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59">
@@ -4570,19 +4903,19 @@
         <v>55.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G59" s="1">
         <v>-1.0</v>
@@ -4603,7 +4936,7 @@
         <v>1.0</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60">
@@ -4611,19 +4944,19 @@
         <v>56.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G60" s="1">
         <v>-1.0</v>
@@ -4644,7 +4977,7 @@
         <v>1.0</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>19</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61">
@@ -4652,19 +4985,19 @@
         <v>57.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="G61" s="1">
         <v>-1.0</v>
@@ -4685,25 +5018,25 @@
         <v>1.0</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -4711,26 +5044,25 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" s="1">
         <v>58.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="G63" s="1">
         <v>-1.0</v>
@@ -4749,27 +5081,24 @@
       </c>
       <c r="L63" s="1">
         <v>1.0</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -4777,26 +5106,28 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
+      <c r="M64" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
         <v>59.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G65" s="1">
         <v>-1.0</v>
@@ -4817,7 +5148,7 @@
         <v>1.0</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66">
@@ -4825,19 +5156,19 @@
         <v>60.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G66" s="1">
         <v>-1.0</v>
@@ -4858,7 +5189,7 @@
         <v>1.0</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67">
@@ -4866,19 +5197,19 @@
         <v>62.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G67" s="1">
         <v>-1.0</v>
@@ -4899,7 +5230,7 @@
         <v>1.0</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68">
@@ -4907,19 +5238,19 @@
         <v>63.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="G68" s="1">
         <v>-1.0</v>
@@ -4940,7 +5271,7 @@
         <v>1.0</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69">
@@ -4948,19 +5279,19 @@
         <v>64.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="G69" s="1">
         <v>-1.0</v>
@@ -4981,7 +5312,7 @@
         <v>1.0</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>19</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70">
@@ -4989,19 +5320,19 @@
         <v>65.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G70" s="1">
         <v>-1.0</v>
@@ -5022,7 +5353,7 @@
         <v>1.0</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71">
@@ -5030,19 +5361,19 @@
         <v>66.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="G71" s="1">
         <v>-1.0</v>
@@ -5063,7 +5394,7 @@
         <v>1.0</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72">
@@ -5071,19 +5402,19 @@
         <v>67.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="G72" s="1">
         <v>-1.0</v>
@@ -5104,7 +5435,7 @@
         <v>1.0</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73">
@@ -5112,19 +5443,19 @@
         <v>68.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G73" s="1">
         <v>-1.0</v>
@@ -5145,7 +5476,7 @@
         <v>1.0</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74">
@@ -5153,19 +5484,19 @@
         <v>69.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G74" s="1">
         <v>-1.0</v>
@@ -5186,7 +5517,7 @@
         <v>1.0</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75">
@@ -5194,19 +5525,19 @@
         <v>70.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G75" s="1">
         <v>-1.0</v>
@@ -5227,7 +5558,7 @@
         <v>1.0</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76">
@@ -5235,19 +5566,19 @@
         <v>71.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G76" s="1">
         <v>-1.0</v>
@@ -5268,7 +5599,7 @@
         <v>1.0</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77">
@@ -5276,19 +5607,19 @@
         <v>72.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G77" s="1">
         <v>-1.0</v>
@@ -5309,7 +5640,7 @@
         <v>1.0</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78">
@@ -5317,19 +5648,19 @@
         <v>73.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G78" s="1">
         <v>-1.0</v>
@@ -5350,7 +5681,7 @@
         <v>1.0</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79">
@@ -5358,19 +5689,19 @@
         <v>74.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G79" s="1">
         <v>-1.0</v>
@@ -5391,7 +5722,7 @@
         <v>1.0</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>19</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80">
@@ -5399,19 +5730,19 @@
         <v>76.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G80" s="1">
         <v>-1.0</v>
@@ -5432,7 +5763,7 @@
         <v>1.0</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81">
@@ -5440,19 +5771,19 @@
         <v>77.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G81" s="1">
         <v>-1.0</v>
@@ -5473,7 +5804,7 @@
         <v>1.0</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>19</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82">
@@ -5481,19 +5812,19 @@
         <v>78.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="G82" s="1">
         <v>-1.0</v>
@@ -5514,7 +5845,7 @@
         <v>1.0</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>19</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83">
@@ -5522,19 +5853,19 @@
         <v>79.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="G83" s="1">
         <v>-1.0</v>
@@ -5555,7 +5886,7 @@
         <v>1.0</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>19</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84">
@@ -5563,19 +5894,19 @@
         <v>80.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="G84" s="1">
         <v>-1.0</v>
@@ -5596,7 +5927,7 @@
         <v>1.0</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85">
@@ -5604,19 +5935,19 @@
         <v>81.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G85" s="1">
         <v>-1.0</v>
@@ -5637,7 +5968,7 @@
         <v>1.0</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>19</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86">
@@ -5645,19 +5976,19 @@
         <v>82.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="G86" s="1">
         <v>-1.0</v>
@@ -5678,7 +6009,7 @@
         <v>1.0</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>19</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87">
@@ -5686,19 +6017,19 @@
         <v>83.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G87" s="1">
         <v>-1.0</v>
@@ -5719,7 +6050,7 @@
         <v>1.0</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>19</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88">
@@ -5727,19 +6058,19 @@
         <v>84.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G88" s="1">
         <v>-1.0</v>
@@ -5760,7 +6091,7 @@
         <v>1.0</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89">
@@ -5768,19 +6099,19 @@
         <v>85.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="G89" s="1">
         <v>-1.0</v>
@@ -5801,7 +6132,7 @@
         <v>1.0</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>19</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90">
@@ -5809,19 +6140,19 @@
         <v>86.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="G90" s="1">
         <v>-1.0</v>
@@ -5842,7 +6173,7 @@
         <v>1.0</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>19</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91">
@@ -5850,19 +6181,19 @@
         <v>87.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G91" s="1">
         <v>-1.0</v>
@@ -5883,7 +6214,7 @@
         <v>1.0</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>19</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92">
@@ -5891,19 +6222,19 @@
         <v>88.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G92" s="1">
         <v>-1.0</v>
@@ -5924,7 +6255,7 @@
         <v>1.0</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93">
@@ -5932,19 +6263,19 @@
         <v>89.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G93" s="1">
         <v>-1.0</v>
@@ -5965,7 +6296,7 @@
         <v>1.0</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>19</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94">
@@ -5973,19 +6304,19 @@
         <v>90.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="G94" s="1">
         <v>-1.0</v>
@@ -6006,7 +6337,7 @@
         <v>1.0</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95">
@@ -6014,19 +6345,19 @@
         <v>91.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>317</v>
+        <v>372</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="G95" s="1">
         <v>-1.0</v>
@@ -6047,7 +6378,7 @@
         <v>1.0</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>19</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96">
@@ -6055,19 +6386,19 @@
         <v>92.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G96" s="1">
         <v>-1.0</v>
@@ -6088,25 +6419,25 @@
         <v>1.0</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>19</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -6114,26 +6445,28 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
+      <c r="M97" s="1" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
         <v>93.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G98" s="1">
         <v>-1.0</v>
@@ -6154,7 +6487,7 @@
         <v>1.0</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99">
@@ -6162,19 +6495,19 @@
         <v>94.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
       <c r="G99" s="1">
         <v>-1.0</v>
@@ -6195,7 +6528,7 @@
         <v>1.0</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>19</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100">
@@ -6203,19 +6536,19 @@
         <v>95.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>336</v>
+        <v>395</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="G100" s="1">
         <v>-1.0</v>
@@ -6236,7 +6569,7 @@
         <v>1.0</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>19</v>
+        <v>398</v>
       </c>
     </row>
     <row r="101">
@@ -6244,19 +6577,19 @@
         <v>96.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>339</v>
+        <v>399</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G101" s="1">
         <v>-1.0</v>
@@ -6277,7 +6610,7 @@
         <v>1.0</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>19</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102">
@@ -6285,19 +6618,19 @@
         <v>97.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="G102" s="1">
         <v>-1.0</v>
@@ -6318,7 +6651,7 @@
         <v>1.0</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
@@ -6326,19 +6659,19 @@
         <v>98.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="G103" s="1">
         <v>-1.0</v>
@@ -6359,7 +6692,7 @@
         <v>1.0</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>19</v>
+        <v>410</v>
       </c>
     </row>
     <row r="104">
@@ -6367,19 +6700,19 @@
         <v>99.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G104" s="1">
         <v>-1.0</v>
@@ -6400,7 +6733,7 @@
         <v>1.0</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105">
@@ -6408,19 +6741,19 @@
         <v>100.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>352</v>
+        <v>414</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>355</v>
+        <v>417</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
       <c r="G105" s="1">
         <v>-1.0</v>
@@ -6441,7 +6774,7 @@
         <v>1.0</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106">
@@ -6449,19 +6782,19 @@
         <v>101.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>357</v>
+        <v>419</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="G106" s="1">
         <v>-1.0</v>
@@ -6482,7 +6815,7 @@
         <v>1.0</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107">
@@ -6490,19 +6823,19 @@
         <v>102.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G107" s="1">
         <v>-1.0</v>
@@ -6523,7 +6856,7 @@
         <v>1.0</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>19</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108">
@@ -6531,19 +6864,19 @@
         <v>103.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G108" s="1">
         <v>-1.0</v>
@@ -6564,7 +6897,7 @@
         <v>1.0</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>19</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109">
@@ -6572,19 +6905,19 @@
         <v>104.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>364</v>
+        <v>428</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="G109" s="1">
         <v>-1.0</v>
@@ -6605,7 +6938,7 @@
         <v>1.0</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>19</v>
+        <v>432</v>
       </c>
     </row>
     <row r="110">
@@ -6613,19 +6946,19 @@
         <v>105.0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>368</v>
+        <v>433</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="G110" s="1">
         <v>-1.0</v>
@@ -6646,7 +6979,7 @@
         <v>1.0</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>19</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111">
@@ -6654,19 +6987,19 @@
         <v>106.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="G111" s="1">
         <v>-1.0</v>
@@ -6687,7 +7020,7 @@
         <v>1.0</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>19</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112">
@@ -6695,19 +7028,19 @@
         <v>107.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>378</v>
+        <v>445</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>379</v>
+        <v>446</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>380</v>
+        <v>447</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>381</v>
+        <v>448</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G112" s="1">
         <v>-1.0</v>
@@ -6728,7 +7061,7 @@
         <v>1.0</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113">
@@ -6736,19 +7069,19 @@
         <v>108.0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>386</v>
+        <v>453</v>
       </c>
       <c r="G113" s="1">
         <v>-1.0</v>
@@ -6769,7 +7102,7 @@
         <v>1.0</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>19</v>
+        <v>454</v>
       </c>
     </row>
     <row r="114">
@@ -6777,19 +7110,19 @@
         <v>109.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G114" s="1">
         <v>-1.0</v>
@@ -6810,7 +7143,7 @@
         <v>1.0</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115">
@@ -6818,19 +7151,19 @@
         <v>110.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G115" s="1">
         <v>-1.0</v>
@@ -6851,7 +7184,7 @@
         <v>1.0</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>19</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116">
@@ -6859,19 +7192,19 @@
         <v>111.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>390</v>
+        <v>459</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="G116" s="1">
         <v>-1.0</v>
@@ -6892,7 +7225,7 @@
         <v>1.0</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117">
@@ -6900,19 +7233,19 @@
         <v>112.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>394</v>
+        <v>463</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>397</v>
+        <v>466</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G117" s="1">
         <v>-1.0</v>
@@ -6933,7 +7266,7 @@
         <v>1.0</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>19</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118">
@@ -6941,19 +7274,19 @@
         <v>114.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>398</v>
+        <v>468</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>399</v>
+        <v>469</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G118" s="1">
         <v>-1.0</v>
@@ -6974,7 +7307,7 @@
         <v>1.0</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119">
@@ -6982,19 +7315,19 @@
         <v>115.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>402</v>
+        <v>472</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>404</v>
+        <v>474</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="G119" s="1">
         <v>-1.0</v>
@@ -7015,7 +7348,7 @@
         <v>1.0</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>19</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120">
@@ -7023,19 +7356,19 @@
         <v>116.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G120" s="1">
         <v>-1.0</v>
@@ -7056,7 +7389,7 @@
         <v>1.0</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121">
@@ -7064,19 +7397,19 @@
         <v>117.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>407</v>
+        <v>478</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>408</v>
+        <v>479</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>410</v>
+        <v>481</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="G121" s="1">
         <v>-1.0</v>
@@ -7097,7 +7430,7 @@
         <v>1.0</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>19</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122">
@@ -7105,19 +7438,19 @@
         <v>118.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>412</v>
+        <v>484</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G122" s="1">
         <v>-1.0</v>
@@ -7138,7 +7471,7 @@
         <v>1.0</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>19</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123">
@@ -7146,19 +7479,19 @@
         <v>119.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>414</v>
+        <v>487</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G123" s="1">
         <v>-1.0</v>
@@ -7179,7 +7512,7 @@
         <v>1.0</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124">
@@ -7187,19 +7520,19 @@
         <v>120.0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>418</v>
+        <v>491</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>419</v>
+        <v>492</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G124" s="1">
         <v>-1.0</v>
@@ -7220,7 +7553,7 @@
         <v>1.0</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125">
@@ -7228,19 +7561,19 @@
         <v>121.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>422</v>
+        <v>495</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>423</v>
+        <v>496</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>424</v>
+        <v>497</v>
       </c>
       <c r="G125" s="1">
         <v>-1.0</v>
@@ -7261,7 +7594,7 @@
         <v>1.0</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>19</v>
+        <v>498</v>
       </c>
     </row>
     <row r="126">
@@ -7269,19 +7602,19 @@
         <v>122.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G126" s="1">
         <v>-1.0</v>
@@ -7302,7 +7635,7 @@
         <v>1.0</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127">
@@ -7310,19 +7643,19 @@
         <v>123.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>430</v>
+        <v>504</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="G127" s="1">
         <v>-1.0</v>
@@ -7343,7 +7676,7 @@
         <v>1.0</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>19</v>
+        <v>505</v>
       </c>
     </row>
     <row r="128">
@@ -7351,19 +7684,19 @@
         <v>124.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>431</v>
+        <v>506</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G128" s="1">
         <v>-1.0</v>
@@ -7384,25 +7717,25 @@
         <v>1.0</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>19</v>
+        <v>507</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>433</v>
+        <v>509</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>434</v>
+        <v>510</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -7410,26 +7743,28 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
+      <c r="M129" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
         <v>125.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>435</v>
+        <v>511</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>436</v>
+        <v>512</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G130" s="1">
         <v>-1.0</v>
@@ -7450,7 +7785,7 @@
         <v>1.0</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131">
@@ -7458,19 +7793,19 @@
         <v>126.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G131" s="1">
         <v>-1.0</v>
@@ -7491,7 +7826,7 @@
         <v>1.0</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132">
@@ -7499,19 +7834,19 @@
         <v>127.0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>440</v>
+        <v>516</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>442</v>
+        <v>518</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>443</v>
+        <v>519</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>444</v>
+        <v>520</v>
       </c>
       <c r="G132" s="1">
         <v>-1.0</v>
@@ -7532,7 +7867,7 @@
         <v>1.0</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133">
@@ -7540,19 +7875,19 @@
         <v>128.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>445</v>
+        <v>521</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>447</v>
+        <v>523</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>448</v>
+        <v>524</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>449</v>
+        <v>525</v>
       </c>
       <c r="G133" s="1">
         <v>-1.0</v>
@@ -7573,7 +7908,7 @@
         <v>1.0</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>19</v>
+        <v>526</v>
       </c>
     </row>
     <row r="134">
@@ -7581,19 +7916,19 @@
         <v>129.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>450</v>
+        <v>527</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>451</v>
+        <v>528</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>452</v>
+        <v>529</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>453</v>
+        <v>530</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="G134" s="1">
         <v>-1.0</v>
@@ -7614,7 +7949,7 @@
         <v>1.0</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>19</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135">
@@ -7622,19 +7957,19 @@
         <v>130.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>455</v>
+        <v>533</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>456</v>
+        <v>534</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>457</v>
+        <v>535</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="G135" s="1">
         <v>-1.0</v>
@@ -7655,7 +7990,7 @@
         <v>1.0</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>19</v>
+        <v>536</v>
       </c>
     </row>
     <row r="136">
@@ -7663,19 +7998,19 @@
         <v>131.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>458</v>
+        <v>537</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>459</v>
+        <v>538</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>460</v>
+        <v>539</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>461</v>
+        <v>540</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>462</v>
+        <v>541</v>
       </c>
       <c r="G136" s="1">
         <v>-1.0</v>
@@ -7696,7 +8031,7 @@
         <v>1.0</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137">
@@ -7704,19 +8039,19 @@
         <v>132.0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>463</v>
+        <v>542</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>464</v>
+        <v>543</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>465</v>
+        <v>544</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="G137" s="1">
         <v>-1.0</v>
@@ -7737,7 +8072,7 @@
         <v>1.0</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>19</v>
+        <v>545</v>
       </c>
     </row>
     <row r="138">
@@ -7745,19 +8080,19 @@
         <v>133.0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>466</v>
+        <v>546</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>468</v>
+        <v>548</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="G138" s="1">
         <v>-1.0</v>
@@ -7778,7 +8113,7 @@
         <v>1.0</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139">
@@ -7786,19 +8121,19 @@
         <v>134.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>471</v>
+        <v>551</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>472</v>
+        <v>552</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>473</v>
+        <v>553</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>474</v>
+        <v>554</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="G139" s="1">
         <v>-1.0</v>
@@ -7819,7 +8154,7 @@
         <v>1.0</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>19</v>
+        <v>555</v>
       </c>
     </row>
     <row r="140">
@@ -7827,19 +8162,19 @@
         <v>135.0</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>475</v>
+        <v>556</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>476</v>
+        <v>557</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>477</v>
+        <v>558</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>478</v>
+        <v>559</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="G140" s="1">
         <v>-1.0</v>
@@ -7860,7 +8195,7 @@
         <v>1.0</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>19</v>
+        <v>560</v>
       </c>
     </row>
     <row r="141">
@@ -7868,19 +8203,19 @@
         <v>136.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>479</v>
+        <v>561</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>480</v>
+        <v>562</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>481</v>
+        <v>563</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>482</v>
+        <v>564</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>483</v>
+        <v>565</v>
       </c>
       <c r="G141" s="1">
         <v>-1.0</v>
@@ -7901,7 +8236,7 @@
         <v>1.0</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>19</v>
+        <v>566</v>
       </c>
     </row>
     <row r="142">
@@ -7909,19 +8244,19 @@
         <v>137.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>484</v>
+        <v>567</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>485</v>
+        <v>568</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>486</v>
+        <v>569</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>487</v>
+        <v>570</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>488</v>
+        <v>571</v>
       </c>
       <c r="G142" s="1">
         <v>-1.0</v>
@@ -7942,7 +8277,7 @@
         <v>1.0</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>19</v>
+        <v>572</v>
       </c>
     </row>
     <row r="143">
@@ -7950,19 +8285,19 @@
         <v>138.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>489</v>
+        <v>573</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G143" s="1">
         <v>-1.0</v>
@@ -7983,7 +8318,7 @@
         <v>1.0</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144">
@@ -7991,19 +8326,19 @@
         <v>139.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>490</v>
+        <v>574</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
       <c r="G144" s="1">
         <v>-1.0</v>
@@ -8024,7 +8359,7 @@
         <v>1.0</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145">
@@ -8032,19 +8367,19 @@
         <v>141.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>494</v>
+        <v>578</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>495</v>
+        <v>579</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>496</v>
+        <v>580</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="G145" s="1">
         <v>-1.0</v>
@@ -8065,7 +8400,7 @@
         <v>1.0</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>19</v>
+        <v>476</v>
       </c>
     </row>
     <row r="146">
@@ -8073,19 +8408,19 @@
         <v>142.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>497</v>
+        <v>581</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>498</v>
+        <v>582</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>499</v>
+        <v>583</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>500</v>
+        <v>584</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="G146" s="1">
         <v>-1.0</v>
@@ -8106,7 +8441,7 @@
         <v>1.0</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>19</v>
+        <v>586</v>
       </c>
     </row>
     <row r="147">
@@ -8114,19 +8449,19 @@
         <v>143.0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>502</v>
+        <v>587</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>503</v>
+        <v>588</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>504</v>
+        <v>589</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G147" s="1">
         <v>-1.0</v>
@@ -8147,7 +8482,7 @@
         <v>1.0</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>19</v>
+        <v>590</v>
       </c>
     </row>
     <row r="148">
@@ -8155,19 +8490,19 @@
         <v>144.0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>505</v>
+        <v>591</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>506</v>
+        <v>592</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>507</v>
+        <v>593</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="G148" s="1">
         <v>-1.0</v>
@@ -8188,7 +8523,7 @@
         <v>1.0</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149">
@@ -8196,19 +8531,19 @@
         <v>145.0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G149" s="1">
         <v>-1.0</v>
@@ -8229,7 +8564,7 @@
         <v>1.0</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150">
@@ -8237,19 +8572,19 @@
         <v>146.0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>509</v>
+        <v>595</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G150" s="1">
         <v>-1.0</v>
@@ -8270,7 +8605,7 @@
         <v>1.0</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151">
@@ -8278,19 +8613,19 @@
         <v>147.0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>510</v>
+        <v>596</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G151" s="1">
         <v>-1.0</v>
@@ -8311,7 +8646,7 @@
         <v>1.0</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152">
@@ -8319,19 +8654,19 @@
         <v>148.0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>511</v>
+        <v>597</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G152" s="1">
         <v>-1.0</v>
@@ -8352,7 +8687,7 @@
         <v>1.0</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>19</v>
+        <v>358</v>
       </c>
     </row>
     <row r="153">
@@ -8360,19 +8695,19 @@
         <v>149.0</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>512</v>
+        <v>598</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>513</v>
+        <v>599</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>514</v>
+        <v>600</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1">
@@ -8391,7 +8726,7 @@
         <v>1.0</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154">
@@ -8399,19 +8734,19 @@
         <v>150.0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>516</v>
+        <v>602</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>517</v>
+        <v>603</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>518</v>
+        <v>604</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>519</v>
+        <v>605</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>520</v>
+        <v>606</v>
       </c>
       <c r="G154" s="1">
         <v>-1.0</v>
@@ -8432,7 +8767,7 @@
         <v>1.0</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="155">
@@ -8440,19 +8775,19 @@
         <v>151.0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>521</v>
+        <v>607</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G155" s="1">
         <v>-1.0</v>
@@ -8473,7 +8808,7 @@
         <v>1.0</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156">
@@ -8481,19 +8816,19 @@
         <v>152.0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>523</v>
+        <v>609</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>524</v>
+        <v>610</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>525</v>
+        <v>611</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>526</v>
+        <v>612</v>
       </c>
       <c r="G156" s="1">
         <v>-1.0</v>
@@ -8514,7 +8849,7 @@
         <v>1.0</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>19</v>
+        <v>613</v>
       </c>
     </row>
     <row r="157">
@@ -8522,19 +8857,19 @@
         <v>153.0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>527</v>
+        <v>614</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>528</v>
+        <v>615</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>529</v>
+        <v>616</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G157" s="1">
         <v>-1.0</v>
@@ -8555,7 +8890,7 @@
         <v>1.0</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>19</v>
+        <v>617</v>
       </c>
     </row>
     <row r="158">
@@ -8563,19 +8898,19 @@
         <v>154.0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>530</v>
+        <v>618</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>531</v>
+        <v>619</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>532</v>
+        <v>620</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>533</v>
+        <v>621</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G158" s="1">
         <v>-1.0</v>
@@ -8596,7 +8931,7 @@
         <v>1.0</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159">
@@ -8604,19 +8939,19 @@
         <v>155.0</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>534</v>
+        <v>622</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>535</v>
+        <v>623</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>536</v>
+        <v>624</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G159" s="1">
         <v>-1.0</v>
@@ -8637,7 +8972,7 @@
         <v>1.0</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>19</v>
+        <v>625</v>
       </c>
     </row>
     <row r="160">
@@ -8645,19 +8980,19 @@
         <v>156.0</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>537</v>
+        <v>626</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G160" s="1">
         <v>-1.0</v>
@@ -8678,7 +9013,7 @@
         <v>1.0</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>19</v>
+        <v>627</v>
       </c>
     </row>
     <row r="161">
@@ -8686,19 +9021,19 @@
         <v>157.0</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>538</v>
+        <v>628</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G161" s="1">
         <v>-1.0</v>
@@ -8719,7 +9054,7 @@
         <v>1.0</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>19</v>
+        <v>629</v>
       </c>
     </row>
     <row r="162">
@@ -8727,19 +9062,19 @@
         <v>158.0</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>539</v>
+        <v>630</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>540</v>
+        <v>631</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>541</v>
+        <v>632</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G162" s="1">
         <v>-1.0</v>
@@ -8760,7 +9095,7 @@
         <v>1.0</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163">
@@ -8768,19 +9103,19 @@
         <v>159.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>542</v>
+        <v>633</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>543</v>
+        <v>634</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>544</v>
+        <v>635</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>545</v>
+        <v>636</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G163" s="1">
         <v>-1.0</v>
@@ -8801,7 +9136,7 @@
         <v>1.0</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>19</v>
+        <v>637</v>
       </c>
     </row>
     <row r="164">
@@ -8809,19 +9144,19 @@
         <v>160.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>546</v>
+        <v>638</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>547</v>
+        <v>639</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>447</v>
+        <v>523</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>548</v>
+        <v>640</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>549</v>
+        <v>641</v>
       </c>
       <c r="G164" s="1">
         <v>-1.0</v>
@@ -8842,7 +9177,7 @@
         <v>1.0</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>19</v>
+        <v>526</v>
       </c>
     </row>
     <row r="165">
@@ -8850,19 +9185,19 @@
         <v>161.0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>550</v>
+        <v>642</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>551</v>
+        <v>643</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>552</v>
+        <v>644</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>553</v>
+        <v>645</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>554</v>
+        <v>646</v>
       </c>
       <c r="G165" s="1">
         <v>-1.0</v>
@@ -8883,7 +9218,7 @@
         <v>1.0</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="166">
@@ -8891,19 +9226,19 @@
         <v>162.0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>555</v>
+        <v>647</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1">
@@ -8922,7 +9257,7 @@
         <v>1.0</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167">
@@ -8930,19 +9265,19 @@
         <v>163.0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>556</v>
+        <v>648</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>557</v>
+        <v>649</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>558</v>
+        <v>650</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>559</v>
+        <v>651</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G167" s="1">
         <v>-1.0</v>
@@ -8963,7 +9298,7 @@
         <v>1.0</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>19</v>
+        <v>652</v>
       </c>
     </row>
     <row r="168">
@@ -8971,19 +9306,19 @@
         <v>164.0</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>560</v>
+        <v>653</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1">
@@ -9002,7 +9337,7 @@
         <v>1.0</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="169">
@@ -9010,19 +9345,19 @@
         <v>165.0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>561</v>
+        <v>654</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>562</v>
+        <v>655</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>563</v>
+        <v>656</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>564</v>
+        <v>657</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="G169" s="1">
         <v>-1.0</v>
@@ -9043,7 +9378,7 @@
         <v>1.0</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>19</v>
+        <v>658</v>
       </c>
     </row>
     <row r="170">
@@ -9051,19 +9386,19 @@
         <v>166.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>565</v>
+        <v>659</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>566</v>
+        <v>660</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>567</v>
+        <v>661</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G170" s="1">
         <v>-1.0</v>
@@ -9084,7 +9419,7 @@
         <v>1.0</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>19</v>
+        <v>507</v>
       </c>
     </row>
     <row r="171">
@@ -9092,19 +9427,19 @@
         <v>167.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>568</v>
+        <v>662</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>569</v>
+        <v>663</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>570</v>
+        <v>664</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>571</v>
+        <v>665</v>
       </c>
       <c r="G171" s="1">
         <v>-1.0</v>
@@ -9125,7 +9460,7 @@
         <v>1.0</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>19</v>
+        <v>666</v>
       </c>
     </row>
     <row r="172">
@@ -9133,19 +9468,19 @@
         <v>168.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>572</v>
+        <v>667</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="G172" s="1">
         <v>-1.0</v>
@@ -9166,7 +9501,7 @@
         <v>1.0</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>19</v>
+        <v>668</v>
       </c>
     </row>
     <row r="173">
@@ -9174,19 +9509,19 @@
         <v>169.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>573</v>
+        <v>669</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>563</v>
+        <v>656</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>575</v>
+        <v>671</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="G173" s="1">
         <v>-1.0</v>
@@ -9207,7 +9542,7 @@
         <v>1.0</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="174">
@@ -9215,19 +9550,19 @@
         <v>170.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>576</v>
+        <v>672</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>577</v>
+        <v>673</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>578</v>
+        <v>674</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G174" s="1">
         <v>-1.0</v>
@@ -9248,7 +9583,7 @@
         <v>1.0</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175">
@@ -9256,19 +9591,19 @@
         <v>171.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>579</v>
+        <v>675</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>580</v>
+        <v>676</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>581</v>
+        <v>677</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>582</v>
+        <v>678</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>583</v>
+        <v>679</v>
       </c>
       <c r="G175" s="1">
         <v>-1.0</v>
@@ -9289,7 +9624,7 @@
         <v>1.0</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>19</v>
+        <v>680</v>
       </c>
     </row>
     <row r="176">
@@ -9297,19 +9632,19 @@
         <v>172.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>584</v>
+        <v>681</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>585</v>
+        <v>682</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>586</v>
+        <v>683</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G176" s="1">
         <v>-1.0</v>
@@ -9330,7 +9665,7 @@
         <v>1.0</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>19</v>
+        <v>684</v>
       </c>
     </row>
     <row r="177">
@@ -9338,19 +9673,19 @@
         <v>173.0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>587</v>
+        <v>685</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>588</v>
+        <v>686</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>589</v>
+        <v>687</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>590</v>
+        <v>688</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>591</v>
+        <v>689</v>
       </c>
       <c r="G177" s="1">
         <v>-1.0</v>
@@ -9371,7 +9706,7 @@
         <v>1.0</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>19</v>
+        <v>690</v>
       </c>
     </row>
     <row r="178">
@@ -9379,19 +9714,19 @@
         <v>176.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>592</v>
+        <v>691</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G178" s="1">
         <v>-1.0</v>
@@ -9412,7 +9747,7 @@
         <v>1.0</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="179">
@@ -9420,19 +9755,19 @@
         <v>177.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>593</v>
+        <v>692</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>594</v>
+        <v>693</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>595</v>
+        <v>694</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G179" s="1">
         <v>-1.0</v>
@@ -9453,7 +9788,7 @@
         <v>1.0</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180">
@@ -9461,19 +9796,19 @@
         <v>178.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>596</v>
+        <v>695</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>597</v>
+        <v>696</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>598</v>
+        <v>697</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>599</v>
+        <v>698</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="G180" s="1">
         <v>-1.0</v>
@@ -9494,7 +9829,7 @@
         <v>1.0</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="181">
@@ -9502,19 +9837,19 @@
         <v>179.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>601</v>
+        <v>700</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>602</v>
+        <v>701</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>603</v>
+        <v>702</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>604</v>
+        <v>703</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>605</v>
+        <v>704</v>
       </c>
       <c r="G181" s="1">
         <v>-1.0</v>
@@ -9535,7 +9870,7 @@
         <v>1.0</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>19</v>
+        <v>705</v>
       </c>
     </row>
     <row r="182">
@@ -9543,19 +9878,19 @@
         <v>180.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>606</v>
+        <v>706</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>607</v>
+        <v>707</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>608</v>
+        <v>708</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>609</v>
+        <v>709</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>610</v>
+        <v>710</v>
       </c>
       <c r="G182" s="1">
         <v>-1.0</v>
@@ -9576,7 +9911,7 @@
         <v>1.0</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>19</v>
+        <v>711</v>
       </c>
     </row>
     <row r="183">
@@ -9584,19 +9919,19 @@
         <v>181.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>611</v>
+        <v>712</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>612</v>
+        <v>713</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>613</v>
+        <v>714</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>614</v>
+        <v>715</v>
       </c>
       <c r="G183" s="1">
         <v>-1.0</v>
@@ -9617,7 +9952,7 @@
         <v>1.0</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>19</v>
+        <v>684</v>
       </c>
     </row>
     <row r="184">
@@ -9625,19 +9960,19 @@
         <v>182.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>615</v>
+        <v>716</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>616</v>
+        <v>717</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>617</v>
+        <v>718</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>618</v>
+        <v>719</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="G184" s="1">
         <v>-1.0</v>
@@ -9658,7 +9993,7 @@
         <v>1.0</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>19</v>
+        <v>720</v>
       </c>
     </row>
     <row r="185">
@@ -9666,19 +10001,19 @@
         <v>183.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>619</v>
+        <v>721</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>621</v>
+        <v>723</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>622</v>
+        <v>724</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G185" s="1">
         <v>-1.0</v>
@@ -9699,7 +10034,7 @@
         <v>1.0</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="186">
@@ -9707,19 +10042,19 @@
         <v>184.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>623</v>
+        <v>725</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>624</v>
+        <v>726</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="G186" s="1">
         <v>-1.0</v>
@@ -9740,7 +10075,7 @@
         <v>1.0</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="187">
@@ -9748,19 +10083,19 @@
         <v>185.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>625</v>
+        <v>727</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G187" s="1">
         <v>-1.0</v>
@@ -9781,7 +10116,7 @@
         <v>1.0</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="188">
@@ -9789,19 +10124,19 @@
         <v>186.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>626</v>
+        <v>728</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>627</v>
+        <v>729</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>628</v>
+        <v>730</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="G188" s="1">
         <v>-1.0</v>
@@ -9822,7 +10157,7 @@
         <v>1.0</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="189">
@@ -9830,19 +10165,19 @@
         <v>187.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>629</v>
+        <v>731</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>630</v>
+        <v>732</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>631</v>
+        <v>733</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>632</v>
+        <v>734</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>633</v>
+        <v>735</v>
       </c>
       <c r="G189" s="1">
         <v>-1.0</v>
@@ -9863,7 +10198,7 @@
         <v>1.0</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>19</v>
+        <v>736</v>
       </c>
     </row>
     <row r="190">
@@ -9871,19 +10206,19 @@
         <v>188.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>634</v>
+        <v>737</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>635</v>
+        <v>738</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>636</v>
+        <v>739</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>637</v>
+        <v>740</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="G190" s="1">
         <v>-1.0</v>
@@ -9904,7 +10239,7 @@
         <v>1.0</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="191">
@@ -9912,19 +10247,19 @@
         <v>189.0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>638</v>
+        <v>741</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>639</v>
+        <v>742</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>640</v>
+        <v>743</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>641</v>
+        <v>744</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>642</v>
+        <v>745</v>
       </c>
       <c r="G191" s="1">
         <v>-1.0</v>
@@ -9945,7 +10280,7 @@
         <v>1.0</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>19</v>
+        <v>746</v>
       </c>
     </row>
     <row r="192">
@@ -9953,19 +10288,19 @@
         <v>191.0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>643</v>
+        <v>747</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>644</v>
+        <v>748</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>645</v>
+        <v>749</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G192" s="1">
         <v>-1.0</v>
@@ -9986,7 +10321,7 @@
         <v>1.0</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="193">
@@ -9994,19 +10329,19 @@
         <v>192.0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>646</v>
+        <v>750</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>647</v>
+        <v>751</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>648</v>
+        <v>752</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>649</v>
+        <v>753</v>
       </c>
       <c r="G193" s="1">
         <v>-1.0</v>
@@ -10027,7 +10362,7 @@
         <v>1.0</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="194">
@@ -10035,19 +10370,19 @@
         <v>193.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>650</v>
+        <v>754</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>651</v>
+        <v>755</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>614</v>
+        <v>715</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G194" s="1">
         <v>-1.0</v>
@@ -10068,7 +10403,7 @@
         <v>1.0</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>19</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>

--- a/inst/money.xlsx
+++ b/inst/money.xlsx
@@ -247,7 +247,7 @@
     <t>Arabic</t>
   </si>
   <si>
-    <t>The Bahamas</t>
+    <t>Bahamas</t>
   </si>
   <si>
     <t>Bahamian dollar</t>
@@ -2298,7 +2298,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -2340,14 +2339,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2567,8 +2565,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="4" width="12.63"/>
     <col customWidth="1" min="5" max="5" width="5.5"/>
     <col customWidth="1" min="6" max="6" width="7.5"/>
     <col customWidth="1" min="7" max="7" width="5.38"/>
@@ -2579,7 +2578,7 @@
     <col customWidth="1" min="12" max="12" width="1.38"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
@@ -2658,7 +2657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
@@ -2904,7 +2903,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>54</v>
@@ -2931,7 +2930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>8.0</v>
       </c>
@@ -2972,7 +2971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>9.0</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>63</v>
@@ -3040,7 +3039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>10.0</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>11.0</v>
       </c>
@@ -3122,9 +3121,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3149,7 +3148,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>12.0</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>13.0</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>14.0</v>
       </c>
@@ -3272,7 +3271,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>15.0</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>16.0</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>17.0</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>18.0</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>19.0</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>20.0</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>21.0</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>22.0</v>
       </c>
@@ -3600,7 +3599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>23.0</v>
       </c>
@@ -3641,7 +3640,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>24.0</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>25.0</v>
       </c>
@@ -3723,7 +3722,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>26.0</v>
       </c>
@@ -3764,7 +3763,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>27.0</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>28.0</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <v>29.0</v>
       </c>
@@ -3887,7 +3886,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <v>30.0</v>
       </c>
@@ -3928,7 +3927,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>31.0</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <v>32.0</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <v>34.0</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <v>35.0</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>36.0</v>
       </c>
@@ -4133,7 +4132,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <v>37.0</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <v>38.0</v>
       </c>
@@ -4215,7 +4214,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>187</v>
@@ -4242,7 +4241,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <v>39.0</v>
       </c>
@@ -4283,7 +4282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <v>40.0</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <v>41.0</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <v>42.0</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <v>43.0</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <v>44.0</v>
       </c>
@@ -4488,7 +4487,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <v>45.0</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <v>46.0</v>
       </c>
@@ -4570,7 +4569,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <v>47.0</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <v>48.0</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <v>49.0</v>
       </c>
@@ -4693,7 +4692,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <v>50.0</v>
       </c>
@@ -4734,7 +4733,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <v>51.0</v>
       </c>
@@ -4775,7 +4774,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <v>52.0</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <v>53.0</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <v>54.0</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <v>55.0</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <v>56.0</v>
       </c>
@@ -4980,7 +4979,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <v>57.0</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>252</v>
@@ -5045,7 +5044,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <v>58.0</v>
       </c>
@@ -5083,7 +5082,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>258</v>
@@ -5110,7 +5109,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1">
         <v>59.0</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1">
         <v>60.0</v>
       </c>
@@ -5192,7 +5191,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1">
         <v>62.0</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1">
         <v>63.0</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1">
         <v>64.0</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1">
         <v>65.0</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1">
         <v>66.0</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1">
         <v>67.0</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1">
         <v>68.0</v>
       </c>
@@ -5479,7 +5478,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1">
         <v>69.0</v>
       </c>
@@ -5520,7 +5519,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1">
         <v>70.0</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1">
         <v>71.0</v>
       </c>
@@ -5602,7 +5601,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1">
         <v>72.0</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1">
         <v>73.0</v>
       </c>
@@ -5684,7 +5683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1">
         <v>74.0</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1">
         <v>76.0</v>
       </c>
@@ -5766,7 +5765,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1">
         <v>77.0</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1">
         <v>78.0</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1">
         <v>79.0</v>
       </c>
@@ -5889,7 +5888,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1">
         <v>80.0</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1">
         <v>81.0</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1">
         <v>82.0</v>
       </c>
@@ -6012,7 +6011,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1">
         <v>83.0</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1">
         <v>84.0</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1">
         <v>85.0</v>
       </c>
@@ -6135,7 +6134,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1">
         <v>86.0</v>
       </c>
@@ -6176,7 +6175,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1">
         <v>87.0</v>
       </c>
@@ -6217,7 +6216,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1">
         <v>88.0</v>
       </c>
@@ -6258,7 +6257,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1">
         <v>89.0</v>
       </c>
@@ -6299,7 +6298,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1">
         <v>90.0</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1">
         <v>91.0</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1">
         <v>92.0</v>
       </c>
@@ -6422,7 +6421,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
         <v>381</v>
@@ -6449,7 +6448,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1">
         <v>93.0</v>
       </c>
@@ -6490,7 +6489,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1">
         <v>94.0</v>
       </c>
@@ -6531,7 +6530,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1">
         <v>95.0</v>
       </c>
@@ -6572,7 +6571,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1">
         <v>96.0</v>
       </c>
@@ -6613,7 +6612,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1">
         <v>97.0</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1">
         <v>98.0</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1">
         <v>99.0</v>
       </c>
@@ -6736,7 +6735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1">
         <v>100.0</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1">
         <v>101.0</v>
       </c>
@@ -6818,7 +6817,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1">
         <v>102.0</v>
       </c>
@@ -6859,7 +6858,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1">
         <v>103.0</v>
       </c>
@@ -6900,7 +6899,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1">
         <v>104.0</v>
       </c>
@@ -6941,7 +6940,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1">
         <v>105.0</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1">
         <v>106.0</v>
       </c>
@@ -7023,7 +7022,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1">
         <v>107.0</v>
       </c>
@@ -7064,7 +7063,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1">
         <v>108.0</v>
       </c>
@@ -7105,7 +7104,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1">
         <v>109.0</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1">
         <v>110.0</v>
       </c>
@@ -7187,7 +7186,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1">
         <v>111.0</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1">
         <v>112.0</v>
       </c>
@@ -7269,7 +7268,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1">
         <v>114.0</v>
       </c>
@@ -7310,7 +7309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1">
         <v>115.0</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1">
         <v>116.0</v>
       </c>
@@ -7392,7 +7391,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1">
         <v>117.0</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1">
         <v>118.0</v>
       </c>
@@ -7474,7 +7473,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1">
         <v>119.0</v>
       </c>
@@ -7515,7 +7514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1">
         <v>120.0</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1">
         <v>121.0</v>
       </c>
@@ -7597,7 +7596,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1">
         <v>122.0</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1">
         <v>123.0</v>
       </c>
@@ -7679,7 +7678,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1">
         <v>124.0</v>
       </c>
@@ -7720,7 +7719,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>508</v>
@@ -7747,7 +7746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1">
         <v>125.0</v>
       </c>
@@ -7788,7 +7787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1">
         <v>126.0</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1">
         <v>127.0</v>
       </c>
@@ -7870,7 +7869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1">
         <v>128.0</v>
       </c>
@@ -7911,7 +7910,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1">
         <v>129.0</v>
       </c>
@@ -7952,7 +7951,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1">
         <v>130.0</v>
       </c>
@@ -7993,7 +7992,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1">
         <v>131.0</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1">
         <v>132.0</v>
       </c>
@@ -8075,7 +8074,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1">
         <v>133.0</v>
       </c>
@@ -8116,7 +8115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1">
         <v>134.0</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1">
         <v>135.0</v>
       </c>
@@ -8198,7 +8197,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1">
         <v>136.0</v>
       </c>
@@ -8239,7 +8238,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1">
         <v>137.0</v>
       </c>
@@ -8280,7 +8279,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1">
         <v>138.0</v>
       </c>
@@ -8321,7 +8320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1">
         <v>139.0</v>
       </c>
@@ -8362,7 +8361,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1">
         <v>141.0</v>
       </c>
@@ -8403,7 +8402,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1">
         <v>142.0</v>
       </c>
@@ -8444,7 +8443,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1">
         <v>143.0</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1">
         <v>144.0</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1">
         <v>145.0</v>
       </c>
@@ -8567,7 +8566,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1">
         <v>146.0</v>
       </c>
@@ -8608,7 +8607,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1">
         <v>147.0</v>
       </c>
@@ -8649,7 +8648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1">
         <v>148.0</v>
       </c>
@@ -8690,7 +8689,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1">
         <v>149.0</v>
       </c>
@@ -8729,7 +8728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1">
         <v>150.0</v>
       </c>
@@ -8770,7 +8769,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1">
         <v>151.0</v>
       </c>
@@ -8811,7 +8810,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1">
         <v>152.0</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1">
         <v>153.0</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1">
         <v>154.0</v>
       </c>
@@ -8934,7 +8933,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1">
         <v>155.0</v>
       </c>
@@ -8975,7 +8974,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1">
         <v>156.0</v>
       </c>
@@ -9016,7 +9015,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1">
         <v>157.0</v>
       </c>
@@ -9057,7 +9056,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1">
         <v>158.0</v>
       </c>
@@ -9098,7 +9097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1">
         <v>159.0</v>
       </c>
@@ -9139,7 +9138,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1">
         <v>160.0</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1">
         <v>161.0</v>
       </c>
@@ -9221,7 +9220,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1">
         <v>162.0</v>
       </c>
@@ -9260,7 +9259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1">
         <v>163.0</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1">
         <v>164.0</v>
       </c>
@@ -9340,7 +9339,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1">
         <v>165.0</v>
       </c>
@@ -9381,7 +9380,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1">
         <v>166.0</v>
       </c>
@@ -9422,7 +9421,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1">
         <v>167.0</v>
       </c>
@@ -9463,7 +9462,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1">
         <v>168.0</v>
       </c>
@@ -9504,7 +9503,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1">
         <v>169.0</v>
       </c>
@@ -9545,7 +9544,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1">
         <v>170.0</v>
       </c>
@@ -9586,7 +9585,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1">
         <v>171.0</v>
       </c>
@@ -9627,7 +9626,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1">
         <v>172.0</v>
       </c>
@@ -9668,7 +9667,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1">
         <v>173.0</v>
       </c>
@@ -9709,7 +9708,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1">
         <v>176.0</v>
       </c>
@@ -9750,7 +9749,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1">
         <v>177.0</v>
       </c>
@@ -9791,7 +9790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1">
         <v>178.0</v>
       </c>
@@ -9832,7 +9831,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1">
         <v>179.0</v>
       </c>
@@ -9873,7 +9872,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1">
         <v>180.0</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1">
         <v>181.0</v>
       </c>
@@ -9955,7 +9954,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1">
         <v>182.0</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1">
         <v>183.0</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1">
         <v>184.0</v>
       </c>
@@ -10078,7 +10077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1">
         <v>185.0</v>
       </c>
@@ -10119,7 +10118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1">
         <v>186.0</v>
       </c>
@@ -10160,7 +10159,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1">
         <v>187.0</v>
       </c>
@@ -10201,7 +10200,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1">
         <v>188.0</v>
       </c>
@@ -10242,7 +10241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1">
         <v>189.0</v>
       </c>
@@ -10283,7 +10282,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1">
         <v>191.0</v>
       </c>
@@ -10324,7 +10323,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1">
         <v>192.0</v>
       </c>
@@ -10365,7 +10364,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1">
         <v>193.0</v>
       </c>
@@ -10406,6 +10405,812 @@
         <v>756</v>
       </c>
     </row>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
